--- a/Rechnung.xlsx
+++ b/Rechnung.xlsx
@@ -23,7 +23,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Blatt1!$C$22</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Blatt1!$C$23</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Stasi</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Differenz</t>
+  </si>
+  <si>
+    <t>Faktor</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -149,8 +152,160 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,10 +363,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="203">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -237,6 +392,82 @@
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -262,6 +493,82 @@
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -615,6 +922,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="5">
+        <v>48.856999999999999</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
@@ -625,6 +938,12 @@
       <c r="C3" s="1">
         <v>38000</v>
       </c>
+      <c r="E3" s="5">
+        <v>2.298</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -707,7 +1026,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <f>B10/1000000</f>
         <v>1.9238095238095242E-2</v>
       </c>
@@ -734,128 +1053,141 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>3.9062500000000002E-4</v>
+        <v>6.2368610240863304E-4</v>
       </c>
       <c r="C14" s="5">
-        <v>18.218592007288052</v>
+        <v>18.518392701303245</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
-        <f>52.52+B14</f>
-        <v>52.520390625000005</v>
-      </c>
-      <c r="C15" s="6">
-        <f>B15</f>
-        <v>52.520390625000005</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>"["&amp;B$15&amp;", "&amp;B$17&amp;"],"</f>
-        <v>[52.520390625, 13.4006510416667],</v>
+      <c r="B15" s="5">
+        <f>$E$2</f>
+        <v>48.856999999999999</v>
+      </c>
+      <c r="C15" s="5">
+        <f>$E$2</f>
+        <v>48.856999999999999</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>"["&amp;C$15&amp;", "&amp;C$17&amp;"],"</f>
-        <v>[52.520390625, 58.9474800182201],</v>
+        <f>"["&amp;C$15&amp;", "&amp;C$18&amp;"],"</f>
+        <v>[48.857, 2.2985],</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
-        <f>52.52-B14</f>
-        <v>52.519609375000002</v>
-      </c>
-      <c r="C16" s="6">
-        <f>C15-2*C14</f>
-        <v>16.0832066104239</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>"["&amp;B$15&amp;", "&amp;B$18&amp;"],"</f>
-        <v>[52.520390625, 13.3993489583333],</v>
+      <c r="B16" s="5">
+        <f>$E$2-2*B14</f>
+        <v>48.855752627795184</v>
+      </c>
+      <c r="C16" s="5">
+        <f>$E$2-2*C14</f>
+        <v>11.820214597393509</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>"["&amp;C$15&amp;", "&amp;C$18&amp;"],"</f>
-        <v>[52.520390625, 13.401],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <f>"["&amp;C$16&amp;", "&amp;C$19&amp;"],"</f>
+        <v>[11.8202145973935, 45.2120670371846],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <f>13.4+B14/0.6</f>
-        <v>13.400651041666666</v>
-      </c>
-      <c r="C17" s="6">
-        <f>C18+2.5*C14</f>
-        <v>58.947480018220134</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>"["&amp;B$16&amp;", "&amp;B$18&amp;"],"</f>
-        <v>[52.519609375, 13.3993489583333],</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>"["&amp;C$16&amp;", "&amp;C$18&amp;"],"</f>
-        <v>[16.0832066104239, 13.401],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <f>1/COS(PI()*(B15+B16)/360)</f>
+        <v>1.5198751004319664</v>
+      </c>
+      <c r="C17" s="5">
+        <f>1/COS(PI()*(C15+C16)/360)</f>
+        <v>1.1586741821865703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
-        <f>13.4-B14/0.6</f>
-        <v>13.399348958333334</v>
-      </c>
-      <c r="C18" s="6">
-        <f>13.401</f>
-        <v>13.401</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>"["&amp;B$16&amp;", "&amp;B$17&amp;"]"</f>
-        <v>[52.519609375, 13.4006510416667]</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f>"["&amp;C$16&amp;", "&amp;C$17&amp;"]"</f>
-        <v>[16.0832066104239, 58.9474800182201]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="B18" s="5">
+        <f>$E$3-$F$3</f>
+        <v>2.2974999999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <f>$E$3+$F$3</f>
+        <v>2.2985000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <f>B18-2*B14*B17</f>
+        <v>2.2956041500449271</v>
+      </c>
+      <c r="C19" s="5">
+        <f>C18+2*C14*C17</f>
+        <v>45.212067037184575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5">
-        <f>(6371^2)*((B17-B18)*PI()/180)*(SIN(B15*PI()/180)-SIN(B16*PI()/180))</f>
-        <v>7.6532913485321853E-3</v>
-      </c>
-      <c r="C20" s="5">
-        <f>(6371^2)*((C17-C18)*PI()/180)*(SIN(C15*PI()/180)-SIN(C16*PI()/180))</f>
-        <v>16666666.658368273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="5">
+        <f>ABS((6371^2)*((B18-B19)*PI()/180)*(SIN(B15*PI()/180)-SIN(B16*PI()/180)))</f>
+        <v>1.9238095231351223E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <f>ABS((6371^2)*((C18-C19)*PI()/180)*(SIN(C15*PI()/180)-SIN(C16*PI()/180)))</f>
+        <v>16666666.572038384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="5">
-        <f>(B20-B11)^2</f>
-        <v>1.3420768115963533E-4</v>
-      </c>
-      <c r="C22" s="5">
-        <f>(C20-C11)^2</f>
-        <v>6.8863332007410016E-5</v>
+      <c r="B23" s="5">
+        <f>(B21-B11)^2</f>
+        <v>4.5481786041736673E-23</v>
+      </c>
+      <c r="C23" s="5">
+        <f>(C21-C11)^2</f>
+        <v>8.9545117337080371E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="1" t="str">
+        <f>"a: {y:"&amp;B$16&amp;", x:"&amp;B$19&amp;"},"</f>
+        <v>a: {y:48.8557526277952, x:2.29560415004493},</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>"a: {y:"&amp;C$16&amp;", x:"&amp;C$18&amp;"},"</f>
+        <v>a: {y:11.8202145973935, x:2.2985},</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>"["&amp;E2&amp;","&amp;E3&amp;"];"</f>
+        <v>[48.857,2.298];</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="1" t="str">
+        <f>"b: {y:"&amp;B$15&amp;", x:"&amp;B$18&amp;"},"</f>
+        <v>b: {y:48.857, x:2.2975},</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>"b: {y:"&amp;C$15&amp;", x:"&amp;C$19&amp;"},"</f>
+        <v>b: {y:48.857, x:45.2120670371846},</v>
       </c>
     </row>
   </sheetData>
